--- a/utils/metadata/cognitive_dataset.xlsx
+++ b/utils/metadata/cognitive_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmatosato/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmatosato/Documents/PhD/ANM_Verona/utils/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67058602-3F21-9441-9549-2A04D95E9937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE244BC2-B888-B242-B56F-A57ACF2D0FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26820" windowHeight="12320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,12 +645,6 @@
         <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -679,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,9 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,21 +1122,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMC327"/>
+  <dimension ref="A1:AMB178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9" max="1017" width="11.5" style="1"/>
+    <col min="7" max="1016" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,9 +1156,8 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +1295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +1364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -5214,605 +5202,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="5"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="5"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="5"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="5"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="5"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="5"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="5"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="5"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="5"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="5"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="5"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="5"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="5"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="5"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="5"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="5"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="5"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="5"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="5"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="5"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="5"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="5"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="5"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="5"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="5"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="5"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="5"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="5"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="5"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="5"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="5"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="5"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="5"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="5"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="5"/>
-      <c r="D213" s="7"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="5"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="5"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="5"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="5"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="5"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="5"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220" s="5"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="5"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="5"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="5"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="5"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225" s="5"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="5"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="5"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="5"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229" s="5"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230" s="5"/>
-      <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231" s="5"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="5"/>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="5"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A234" s="5"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A235" s="5"/>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A236" s="5"/>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="5"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="5"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="5"/>
-      <c r="D239" s="6"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240" s="5"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="5"/>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="5"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243" s="5"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A244" s="5"/>
-      <c r="D244" s="6"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="5"/>
-      <c r="D245" s="6"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A246" s="5"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247" s="5"/>
-      <c r="D247" s="6"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="5"/>
-      <c r="D248" s="6"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="5"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="5"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="5"/>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252" s="5"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253" s="5"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254" s="5"/>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255" s="5"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256" s="5"/>
-      <c r="D256" s="6"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="5"/>
-      <c r="D257" s="6"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A258" s="5"/>
-      <c r="D258" s="6"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="5"/>
-      <c r="D259" s="6"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="5"/>
-      <c r="D260" s="6"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="5"/>
-      <c r="D261" s="6"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262" s="5"/>
-      <c r="D262" s="6"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263" s="5"/>
-      <c r="D263" s="6"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264" s="5"/>
-      <c r="D264" s="6"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265" s="5"/>
-      <c r="D265" s="6"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266" s="5"/>
-      <c r="D266" s="6"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267" s="5"/>
-      <c r="D267" s="6"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" s="5"/>
-      <c r="D268" s="6"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="5"/>
-      <c r="D269" s="6"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="5"/>
-      <c r="D270" s="6"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="5"/>
-      <c r="D271" s="6"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="5"/>
-      <c r="D272" s="6"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A273" s="5"/>
-      <c r="D273" s="6"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A274" s="5"/>
-      <c r="D274" s="6"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A275" s="5"/>
-      <c r="D275" s="6"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A276" s="5"/>
-      <c r="D276" s="6"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A277" s="5"/>
-      <c r="D277" s="6"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A278" s="5"/>
-      <c r="D278" s="6"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A279" s="5"/>
-      <c r="D279" s="6"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A280" s="5"/>
-      <c r="D280" s="6"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281" s="5"/>
-      <c r="D281" s="6"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="5"/>
-      <c r="D282" s="6"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="5"/>
-      <c r="D283" s="6"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A284" s="5"/>
-      <c r="D284" s="6"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A285" s="5"/>
-      <c r="D285" s="6"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A286" s="5"/>
-      <c r="D286" s="6"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A287" s="5"/>
-      <c r="D287" s="6"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A288" s="5"/>
-      <c r="D288" s="6"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A289" s="5"/>
-      <c r="D289" s="6"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A290" s="5"/>
-      <c r="D290" s="6"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A291" s="5"/>
-      <c r="D291" s="6"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A292" s="5"/>
-      <c r="D292" s="6"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A293" s="5"/>
-      <c r="D293" s="6"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A294" s="5"/>
-      <c r="D294" s="6"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A295" s="5"/>
-      <c r="D295" s="6"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A296" s="5"/>
-      <c r="D296" s="6"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A297" s="5"/>
-      <c r="D297" s="6"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A298" s="5"/>
-      <c r="D298" s="6"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A299" s="11"/>
-      <c r="D299" s="6"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A300" s="5"/>
-      <c r="D300" s="6"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A301" s="5"/>
-      <c r="D301" s="6"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A302" s="5"/>
-      <c r="D302" s="6"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A303" s="5"/>
-      <c r="D303" s="6"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A304" s="5"/>
-      <c r="D304" s="6"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A305" s="5"/>
-      <c r="D305" s="6"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A306" s="5"/>
-      <c r="D306" s="6"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A307" s="5"/>
-      <c r="D307" s="6"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A308" s="5"/>
-      <c r="D308" s="6"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A309" s="5"/>
-      <c r="D309" s="6"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A310" s="5"/>
-      <c r="D310" s="6"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A311" s="5"/>
-      <c r="D311" s="6"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A312" s="5"/>
-      <c r="D312" s="6"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A313" s="5"/>
-      <c r="D313" s="6"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A314" s="5"/>
-      <c r="D314" s="6"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A315" s="5"/>
-      <c r="D315" s="6"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A316" s="5"/>
-      <c r="D316" s="6"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A317" s="5"/>
-      <c r="D317" s="6"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A318" s="5"/>
-      <c r="D318" s="6"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A319" s="5"/>
-      <c r="D319" s="6"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A320" s="5"/>
-      <c r="D320" s="6"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A321" s="5"/>
-      <c r="D321" s="6"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A322" s="5"/>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A323" s="5"/>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A324" s="5"/>
-      <c r="D324" s="6"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A325" s="5"/>
-      <c r="D325" s="6"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A326" s="5"/>
-      <c r="D326" s="6"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A327" s="5"/>
-      <c r="D327" s="6"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A49:A69 A128:A327">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A49:A69 A128:A178">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
